--- a/Code/Results/Cases/Case_5_182/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_182/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.89994218374909</v>
+        <v>2.590158771791494</v>
       </c>
       <c r="C2">
-        <v>1.424632243274175</v>
+        <v>0.6531155350381255</v>
       </c>
       <c r="D2">
-        <v>0.01362129442009063</v>
+        <v>0.04807882700767863</v>
       </c>
       <c r="E2">
-        <v>0.1011361660369872</v>
+        <v>0.1195447155408011</v>
       </c>
       <c r="F2">
-        <v>3.308718861714112</v>
+        <v>3.384970243692806</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2441005432139178</v>
+        <v>0.2274430023337857</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.001618388718207</v>
+        <v>1.807420711823944</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.23433766482168</v>
+        <v>2.437359848274127</v>
       </c>
       <c r="C3">
-        <v>1.226180551589209</v>
+        <v>0.6069069128337787</v>
       </c>
       <c r="D3">
-        <v>0.01225085707872609</v>
+        <v>0.04793712971785169</v>
       </c>
       <c r="E3">
-        <v>0.08991432193251114</v>
+        <v>0.1177158772568525</v>
       </c>
       <c r="F3">
-        <v>2.979889146566535</v>
+        <v>3.328819371221186</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2161654145444061</v>
+        <v>0.2223673216307844</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.040783344547179</v>
+        <v>1.822854897791373</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.835246241281141</v>
+        <v>2.345226233922517</v>
       </c>
       <c r="C4">
-        <v>1.107191951307527</v>
+        <v>0.5789541211845517</v>
       </c>
       <c r="D4">
-        <v>0.01141606972562315</v>
+        <v>0.04786182353971924</v>
       </c>
       <c r="E4">
-        <v>0.08322612480094804</v>
+        <v>0.116659652562582</v>
       </c>
       <c r="F4">
-        <v>2.787033577865515</v>
+        <v>3.296509297508322</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1996145974087256</v>
+        <v>0.219397220266373</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.067021898184962</v>
+        <v>1.832999409062673</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.674680782709061</v>
+        <v>2.308100492833603</v>
       </c>
       <c r="C5">
-        <v>1.059315087098582</v>
+        <v>0.5676671481167546</v>
       </c>
       <c r="D5">
-        <v>0.01107734141915628</v>
+        <v>0.04783410073699201</v>
       </c>
       <c r="E5">
-        <v>0.08054539367314106</v>
+        <v>0.1162459481881797</v>
       </c>
       <c r="F5">
-        <v>2.710455046032351</v>
+        <v>3.283883502477281</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1930025925398411</v>
+        <v>0.218223428447395</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.078226263319458</v>
+        <v>1.837300489266624</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.648134505864732</v>
+        <v>2.301960999330333</v>
       </c>
       <c r="C6">
-        <v>1.051399206899646</v>
+        <v>0.5657991948310155</v>
       </c>
       <c r="D6">
-        <v>0.01102117787744206</v>
+        <v>0.04782967717854092</v>
       </c>
       <c r="E6">
-        <v>0.08010279933552056</v>
+        <v>0.116178260947482</v>
       </c>
       <c r="F6">
-        <v>2.697853572495177</v>
+        <v>3.281819546344792</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1919121745996364</v>
+        <v>0.2180307210998933</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.080116599143444</v>
+        <v>1.83802474926653</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.833072856626472</v>
+        <v>2.344723850566822</v>
       </c>
       <c r="C7">
-        <v>1.106543923058041</v>
+        <v>0.5788014818782585</v>
       </c>
       <c r="D7">
-        <v>0.011411495895711</v>
+        <v>0.0478614376230091</v>
       </c>
       <c r="E7">
-        <v>0.08318979779938829</v>
+        <v>0.1166540055885754</v>
       </c>
       <c r="F7">
-        <v>2.785992995331355</v>
+        <v>3.296336837125949</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1995249119535174</v>
+        <v>0.2193812424567412</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.067170979804644</v>
+        <v>1.83305673939703</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.668231169316698</v>
+        <v>2.537121150666167</v>
       </c>
       <c r="C8">
-        <v>1.355543501589636</v>
+        <v>0.6370948311719076</v>
       </c>
       <c r="D8">
-        <v>0.01314723782880733</v>
+        <v>0.04802755628642075</v>
       </c>
       <c r="E8">
-        <v>0.09722108200400115</v>
+        <v>0.1189002569276987</v>
       </c>
       <c r="F8">
-        <v>3.1932927869114</v>
+        <v>3.365157235577044</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2343317797023445</v>
+        <v>0.2256623641175253</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.014642805751862</v>
+        <v>1.812603304945881</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.399952171997825</v>
+        <v>2.928008787594251</v>
       </c>
       <c r="C9">
-        <v>1.872133283730307</v>
+        <v>0.754809882341533</v>
       </c>
       <c r="D9">
-        <v>0.01661638974397661</v>
+        <v>0.04844512876813667</v>
       </c>
       <c r="E9">
-        <v>0.1266531407956961</v>
+        <v>0.1238371838019923</v>
       </c>
       <c r="F9">
-        <v>4.077433012537369</v>
+        <v>3.517501306237563</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3083281297648455</v>
+        <v>0.2391540164819617</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9310416132951786</v>
+        <v>1.77783049327212</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.75881962926303</v>
+        <v>3.223828490996254</v>
       </c>
       <c r="C10">
-        <v>2.278136448572354</v>
+        <v>0.8434814779427597</v>
       </c>
       <c r="D10">
-        <v>0.01922702097275319</v>
+        <v>0.04880664150051572</v>
       </c>
       <c r="E10">
-        <v>0.1499590010743255</v>
+        <v>0.1277933445843864</v>
       </c>
       <c r="F10">
-        <v>4.801442109380559</v>
+        <v>3.64031728116305</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3677806997093569</v>
+        <v>0.249801667486409</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8847664660129198</v>
+        <v>1.755587190251418</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.403896393558682</v>
+        <v>3.360357790341993</v>
       </c>
       <c r="C11">
-        <v>2.471145590405627</v>
+        <v>0.8843206251112292</v>
       </c>
       <c r="D11">
-        <v>0.02043462875310098</v>
+        <v>0.04898273104867812</v>
       </c>
       <c r="E11">
-        <v>0.1610685871221023</v>
+        <v>0.1296656243145478</v>
       </c>
       <c r="F11">
-        <v>5.15316451652194</v>
+        <v>3.698618511605048</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3963721419042656</v>
+        <v>0.2548095989843659</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8679280982801885</v>
+        <v>1.746196872268186</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.652874522104867</v>
+        <v>3.41234550929795</v>
       </c>
       <c r="C12">
-        <v>2.545694014368451</v>
+        <v>0.8998594549816517</v>
       </c>
       <c r="D12">
-        <v>0.02089550041390353</v>
+        <v>0.04905106291874972</v>
       </c>
       <c r="E12">
-        <v>0.1653630863552351</v>
+        <v>0.1303851281592259</v>
       </c>
       <c r="F12">
-        <v>5.290207896139776</v>
+        <v>3.721050406410228</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4074667708877371</v>
+        <v>0.2567299308575599</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8622539030098721</v>
+        <v>1.742746698872224</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.599028553421533</v>
+        <v>3.401136172465044</v>
       </c>
       <c r="C13">
-        <v>2.529568965263195</v>
+        <v>0.8965095736126614</v>
       </c>
       <c r="D13">
-        <v>0.0207960714650568</v>
+        <v>0.04903627337458261</v>
       </c>
       <c r="E13">
-        <v>0.1644340336703181</v>
+        <v>0.1302297014287035</v>
       </c>
       <c r="F13">
-        <v>5.260510255574673</v>
+        <v>3.716203452947582</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4050646209765176</v>
+        <v>0.2563152833179885</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8634429721227548</v>
+        <v>1.743485036492572</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.424280414330497</v>
+        <v>3.36462906796686</v>
       </c>
       <c r="C14">
-        <v>2.477247771397515</v>
+        <v>0.885597522161504</v>
       </c>
       <c r="D14">
-        <v>0.02047246866657915</v>
+        <v>0.04898831980093732</v>
       </c>
       <c r="E14">
-        <v>0.1614200503570942</v>
+        <v>0.1297246072281766</v>
       </c>
       <c r="F14">
-        <v>5.164357826214626</v>
+        <v>3.700456864757314</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3972792476841676</v>
+        <v>0.25496710427457</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8674465862878691</v>
+        <v>1.745910899461364</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.317881796516019</v>
+        <v>3.342304951657809</v>
       </c>
       <c r="C15">
-        <v>2.445398402691239</v>
+        <v>0.8789232560894789</v>
       </c>
       <c r="D15">
-        <v>0.02027474193833001</v>
+        <v>0.04895916114290699</v>
       </c>
       <c r="E15">
-        <v>0.1595857782150816</v>
+        <v>0.1294165936188278</v>
       </c>
       <c r="F15">
-        <v>5.105984589500252</v>
+        <v>3.690857933776982</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3925468367714302</v>
+        <v>0.2541444324836561</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.869993540021369</v>
+        <v>1.747410610864577</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.717271516156075</v>
+        <v>3.21494585672059</v>
       </c>
       <c r="C16">
-        <v>2.26571162654966</v>
+        <v>0.8408227932669092</v>
       </c>
       <c r="D16">
-        <v>0.01914855986260022</v>
+        <v>0.04879536583182897</v>
       </c>
       <c r="E16">
-        <v>0.1492443599971764</v>
+        <v>0.1276724537439691</v>
       </c>
       <c r="F16">
-        <v>4.778958063196342</v>
+        <v>3.636556498965888</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3659469751285371</v>
+        <v>0.2494777196239681</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8859594772279706</v>
+        <v>1.756215610390342</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.35625491391886</v>
+        <v>3.137320745216982</v>
       </c>
       <c r="C17">
-        <v>2.157782102134092</v>
+        <v>0.8175791947599009</v>
       </c>
       <c r="D17">
-        <v>0.01846325908730506</v>
+        <v>0.04869784666452404</v>
       </c>
       <c r="E17">
-        <v>0.1430397695447354</v>
+        <v>0.1266211260672385</v>
       </c>
       <c r="F17">
-        <v>4.584483370793976</v>
+        <v>3.603870524313919</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3500544641222518</v>
+        <v>0.2466571365859664</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8968958887325442</v>
+        <v>1.761804434660206</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.151083750414671</v>
+        <v>3.09285694210115</v>
       </c>
       <c r="C18">
-        <v>2.096468184244429</v>
+        <v>0.8042572348392127</v>
       </c>
       <c r="D18">
-        <v>0.01807092635053209</v>
+        <v>0.0486428527444609</v>
       </c>
       <c r="E18">
-        <v>0.1395178203363585</v>
+        <v>0.1260232594105766</v>
       </c>
       <c r="F18">
-        <v>4.47468747739876</v>
+        <v>3.585298998594396</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3410558793868717</v>
+        <v>0.245050253566319</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9035759735642017</v>
+        <v>1.765087465476526</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.082018760022152</v>
+        <v>3.077833724528375</v>
       </c>
       <c r="C19">
-        <v>2.075832368912415</v>
+        <v>0.7997546924987091</v>
       </c>
       <c r="D19">
-        <v>0.01793838549835058</v>
+        <v>0.04862442177084603</v>
       </c>
       <c r="E19">
-        <v>0.1383329812448828</v>
+        <v>0.1258220028051191</v>
       </c>
       <c r="F19">
-        <v>4.43784891297679</v>
+        <v>3.579050113020145</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3380323202797086</v>
+        <v>0.2445088331995464</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9059020332888394</v>
+        <v>1.766210775429542</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.394423966720922</v>
+        <v>3.145564978607865</v>
       </c>
       <c r="C20">
-        <v>2.169190530272715</v>
+        <v>0.8200486238513349</v>
       </c>
       <c r="D20">
-        <v>0.01853601614533318</v>
+        <v>0.04870811442526346</v>
       </c>
       <c r="E20">
-        <v>0.1436953218461099</v>
+        <v>0.1267323343815967</v>
       </c>
       <c r="F20">
-        <v>4.604968013015053</v>
+        <v>3.6073263101093</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3517312134594306</v>
+        <v>0.246955792035493</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8956907119999897</v>
+        <v>1.761202399370774</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.475473157240685</v>
+        <v>3.37534425674977</v>
       </c>
       <c r="C21">
-        <v>2.492573781515205</v>
+        <v>0.8888006356021947</v>
       </c>
       <c r="D21">
-        <v>0.0205674151904951</v>
+        <v>0.04900236030996652</v>
       </c>
       <c r="E21">
-        <v>0.1623028245646481</v>
+        <v>0.1298726797555076</v>
       </c>
       <c r="F21">
-        <v>5.19248983440724</v>
+        <v>3.705072359926191</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3995583303498762</v>
+        <v>0.2553624449436853</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8662507081814397</v>
+        <v>1.745195486902489</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.209915955888846</v>
+        <v>3.527193906445632</v>
       </c>
       <c r="C22">
-        <v>2.712597062883162</v>
+        <v>0.9341658166571847</v>
       </c>
       <c r="D22">
-        <v>0.02191635308839324</v>
+        <v>0.04920427762529656</v>
       </c>
       <c r="E22">
-        <v>0.1749830818948439</v>
+        <v>0.1319863850729206</v>
       </c>
       <c r="F22">
-        <v>5.599324278919283</v>
+        <v>3.771023564472699</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4324042416924527</v>
+        <v>0.2609963531017456</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8511621377302276</v>
+        <v>1.735350837760734</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.8150570984875</v>
+        <v>3.445993796063476</v>
       </c>
       <c r="C23">
-        <v>2.594271120167718</v>
+        <v>0.9099134716588537</v>
       </c>
       <c r="D23">
-        <v>0.02119417416635372</v>
+        <v>0.04909563855170518</v>
       </c>
       <c r="E23">
-        <v>0.1681623066165372</v>
+        <v>0.1308526266097587</v>
       </c>
       <c r="F23">
-        <v>5.379852960826526</v>
+        <v>3.735633279034431</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4147110205338862</v>
+        <v>0.257976543685345</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8587981360448964</v>
+        <v>1.740548336851745</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.377160378686654</v>
+        <v>3.141837250553465</v>
       </c>
       <c r="C24">
-        <v>2.164030505972221</v>
+        <v>0.8189320670904863</v>
       </c>
       <c r="D24">
-        <v>0.01850311757178957</v>
+        <v>0.04870346903217282</v>
       </c>
       <c r="E24">
-        <v>0.143398807066017</v>
+        <v>0.126682036688841</v>
       </c>
       <c r="F24">
-        <v>4.595700691368449</v>
+        <v>3.605763264225175</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3509727278130441</v>
+        <v>0.2468207241193312</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8962343566095683</v>
+        <v>1.761474361749904</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.918666718789837</v>
+        <v>2.820772391448429</v>
       </c>
       <c r="C25">
-        <v>1.728489714190118</v>
+        <v>0.7225891535513256</v>
       </c>
       <c r="D25">
-        <v>0.01566889539003924</v>
+        <v>0.04832246564163256</v>
       </c>
       <c r="E25">
-        <v>0.1184375711599657</v>
+        <v>0.1224441832956131</v>
       </c>
       <c r="F25">
-        <v>3.827007854459993</v>
+        <v>3.474397201050692</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.287546760022579</v>
+        <v>0.2353764591542244</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9512703816155863</v>
+        <v>1.786660944662032</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_182/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_182/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.590158771791494</v>
+        <v>4.899942183749147</v>
       </c>
       <c r="C2">
-        <v>0.6531155350381255</v>
+        <v>1.424632243274459</v>
       </c>
       <c r="D2">
-        <v>0.04807882700767863</v>
+        <v>0.01362129442033222</v>
       </c>
       <c r="E2">
-        <v>0.1195447155408011</v>
+        <v>0.1011361660369765</v>
       </c>
       <c r="F2">
-        <v>3.384970243692806</v>
+        <v>3.308718861714055</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2274430023337857</v>
+        <v>0.2441005432137331</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.807420711823944</v>
+        <v>1.001618388718192</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.437359848274127</v>
+        <v>4.234337664821624</v>
       </c>
       <c r="C3">
-        <v>0.6069069128337787</v>
+        <v>1.22618055158938</v>
       </c>
       <c r="D3">
-        <v>0.04793712971785169</v>
+        <v>0.01225085707871898</v>
       </c>
       <c r="E3">
-        <v>0.1177158772568525</v>
+        <v>0.08991432193253956</v>
       </c>
       <c r="F3">
-        <v>3.328819371221186</v>
+        <v>2.979889146566535</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2223673216307844</v>
+        <v>0.2161654145444487</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.822854897791373</v>
+        <v>1.040783344547158</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.345226233922517</v>
+        <v>3.835246241281311</v>
       </c>
       <c r="C4">
-        <v>0.5789541211845517</v>
+        <v>1.107191951307811</v>
       </c>
       <c r="D4">
-        <v>0.04786182353971924</v>
+        <v>0.01141606972561604</v>
       </c>
       <c r="E4">
-        <v>0.116659652562582</v>
+        <v>0.0832261248009516</v>
       </c>
       <c r="F4">
-        <v>3.296509297508322</v>
+        <v>2.787033577865458</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.219397220266373</v>
+        <v>0.1996145974088321</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.832999409062673</v>
+        <v>1.067021898184883</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.308100492833603</v>
+        <v>3.674680782709061</v>
       </c>
       <c r="C5">
-        <v>0.5676671481167546</v>
+        <v>1.059315087098753</v>
       </c>
       <c r="D5">
-        <v>0.04783410073699201</v>
+        <v>0.01107734141915628</v>
       </c>
       <c r="E5">
-        <v>0.1162459481881797</v>
+        <v>0.08054539367314462</v>
       </c>
       <c r="F5">
-        <v>3.283883502477281</v>
+        <v>2.710455046032365</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.218223428447395</v>
+        <v>0.193002592539905</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.837300489266624</v>
+        <v>1.078226263319465</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.301960999330333</v>
+        <v>3.648134505864675</v>
       </c>
       <c r="C6">
-        <v>0.5657991948310155</v>
+        <v>1.051399206899418</v>
       </c>
       <c r="D6">
-        <v>0.04782967717854092</v>
+        <v>0.0110211778774314</v>
       </c>
       <c r="E6">
-        <v>0.116178260947482</v>
+        <v>0.08010279933548858</v>
       </c>
       <c r="F6">
-        <v>3.281819546344792</v>
+        <v>2.69785357249512</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2180307210998933</v>
+        <v>0.1919121745996719</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.83802474926653</v>
+        <v>1.080116599143416</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.344723850566822</v>
+        <v>3.833072856626416</v>
       </c>
       <c r="C7">
-        <v>0.5788014818782585</v>
+        <v>1.10654392305787</v>
       </c>
       <c r="D7">
-        <v>0.0478614376230091</v>
+        <v>0.01141149589572521</v>
       </c>
       <c r="E7">
-        <v>0.1166540055885754</v>
+        <v>0.08318979779942026</v>
       </c>
       <c r="F7">
-        <v>3.296336837125949</v>
+        <v>2.785992995331384</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2193812424567412</v>
+        <v>0.1995249119535387</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.83305673939703</v>
+        <v>1.067170979804651</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.537121150666167</v>
+        <v>4.668231169316698</v>
       </c>
       <c r="C8">
-        <v>0.6370948311719076</v>
+        <v>1.35554350158975</v>
       </c>
       <c r="D8">
-        <v>0.04802755628642075</v>
+        <v>0.0131472378290276</v>
       </c>
       <c r="E8">
-        <v>0.1189002569276987</v>
+        <v>0.09722108200399759</v>
       </c>
       <c r="F8">
-        <v>3.365157235577044</v>
+        <v>3.1932927869114</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2256623641175253</v>
+        <v>0.2343317797023303</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.812603304945881</v>
+        <v>1.014642805751855</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.928008787594251</v>
+        <v>6.399952171997882</v>
       </c>
       <c r="C9">
-        <v>0.754809882341533</v>
+        <v>1.872133283730534</v>
       </c>
       <c r="D9">
-        <v>0.04844512876813667</v>
+        <v>0.01661638974397306</v>
       </c>
       <c r="E9">
-        <v>0.1238371838019923</v>
+        <v>0.1266531407956641</v>
       </c>
       <c r="F9">
-        <v>3.517501306237563</v>
+        <v>4.077433012537369</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2391540164819617</v>
+        <v>0.3083281297646039</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.77783049327212</v>
+        <v>0.9310416132951218</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.223828490996254</v>
+        <v>7.758819629263201</v>
       </c>
       <c r="C10">
-        <v>0.8434814779427597</v>
+        <v>2.278136448572411</v>
       </c>
       <c r="D10">
-        <v>0.04880664150051572</v>
+        <v>0.01922702097274609</v>
       </c>
       <c r="E10">
-        <v>0.1277933445843864</v>
+        <v>0.1499590010743219</v>
       </c>
       <c r="F10">
-        <v>3.64031728116305</v>
+        <v>4.801442109380559</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.249801667486409</v>
+        <v>0.3677806997096411</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.755587190251418</v>
+        <v>0.8847664660129482</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.360357790341993</v>
+        <v>8.403896393558796</v>
       </c>
       <c r="C11">
-        <v>0.8843206251112292</v>
+        <v>2.471145590406195</v>
       </c>
       <c r="D11">
-        <v>0.04898273104867812</v>
+        <v>0.02043462875310809</v>
       </c>
       <c r="E11">
-        <v>0.1296656243145478</v>
+        <v>0.1610685871221094</v>
       </c>
       <c r="F11">
-        <v>3.698618511605048</v>
+        <v>5.153164516521912</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2548095989843659</v>
+        <v>0.3963721419041661</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.746196872268186</v>
+        <v>0.8679280982802027</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.41234550929795</v>
+        <v>8.652874522104639</v>
       </c>
       <c r="C12">
-        <v>0.8998594549816517</v>
+        <v>2.545694014367939</v>
       </c>
       <c r="D12">
-        <v>0.04905106291874972</v>
+        <v>0.02089550041420196</v>
       </c>
       <c r="E12">
-        <v>0.1303851281592259</v>
+        <v>0.1653630863552706</v>
       </c>
       <c r="F12">
-        <v>3.721050406410228</v>
+        <v>5.290207896139748</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2567299308575599</v>
+        <v>0.4074667708877797</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.742746698872224</v>
+        <v>0.8622539030098579</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.401136172465044</v>
+        <v>8.599028553421306</v>
       </c>
       <c r="C13">
-        <v>0.8965095736126614</v>
+        <v>2.529568965263138</v>
       </c>
       <c r="D13">
-        <v>0.04903627337458261</v>
+        <v>0.02079607146548668</v>
       </c>
       <c r="E13">
-        <v>0.1302297014287035</v>
+        <v>0.1644340336703465</v>
       </c>
       <c r="F13">
-        <v>3.716203452947582</v>
+        <v>5.260510255574701</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2563152833179885</v>
+        <v>0.4050646209765745</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.743485036492572</v>
+        <v>0.8634429721227974</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.36462906796686</v>
+        <v>8.424280414330667</v>
       </c>
       <c r="C14">
-        <v>0.885597522161504</v>
+        <v>2.477247771397742</v>
       </c>
       <c r="D14">
-        <v>0.04898831980093732</v>
+        <v>0.02047246866672481</v>
       </c>
       <c r="E14">
-        <v>0.1297246072281766</v>
+        <v>0.1614200503572079</v>
       </c>
       <c r="F14">
-        <v>3.700456864757314</v>
+        <v>5.164357826214598</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25496710427457</v>
+        <v>0.3972792476841533</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.745910899461364</v>
+        <v>0.8674465862879117</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.342304951657809</v>
+        <v>8.31788179651636</v>
       </c>
       <c r="C15">
-        <v>0.8789232560894789</v>
+        <v>2.445398402691694</v>
       </c>
       <c r="D15">
-        <v>0.04895916114290699</v>
+        <v>0.02027474193831935</v>
       </c>
       <c r="E15">
-        <v>0.1294165936188278</v>
+        <v>0.15958577821511</v>
       </c>
       <c r="F15">
-        <v>3.690857933776982</v>
+        <v>5.105984589500281</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2541444324836561</v>
+        <v>0.3925468367713449</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.747410610864577</v>
+        <v>0.8699935400214258</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.21494585672059</v>
+        <v>7.717271516155847</v>
       </c>
       <c r="C16">
-        <v>0.8408227932669092</v>
+        <v>2.265711626550171</v>
       </c>
       <c r="D16">
-        <v>0.04879536583182897</v>
+        <v>0.01914855986319708</v>
       </c>
       <c r="E16">
-        <v>0.1276724537439691</v>
+        <v>0.1492443599971409</v>
       </c>
       <c r="F16">
-        <v>3.636556498965888</v>
+        <v>4.778958063196342</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2494777196239681</v>
+        <v>0.3659469751284377</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.756215610390342</v>
+        <v>0.8859594772280275</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.137320745216982</v>
+        <v>7.356254913918974</v>
       </c>
       <c r="C17">
-        <v>0.8175791947599009</v>
+        <v>2.157782102134718</v>
       </c>
       <c r="D17">
-        <v>0.04869784666452404</v>
+        <v>0.0184632590874223</v>
       </c>
       <c r="E17">
-        <v>0.1266211260672385</v>
+        <v>0.1430397695447603</v>
       </c>
       <c r="F17">
-        <v>3.603870524313919</v>
+        <v>4.584483370794061</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2466571365859664</v>
+        <v>0.3500544641223087</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.761804434660206</v>
+        <v>0.8968958887325158</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.09285694210115</v>
+        <v>7.151083750414841</v>
       </c>
       <c r="C18">
-        <v>0.8042572348392127</v>
+        <v>2.096468184244657</v>
       </c>
       <c r="D18">
-        <v>0.0486428527444609</v>
+        <v>0.01807092635043261</v>
       </c>
       <c r="E18">
-        <v>0.1260232594105766</v>
+        <v>0.1395178203363763</v>
       </c>
       <c r="F18">
-        <v>3.585298998594396</v>
+        <v>4.47468747739876</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.245050253566319</v>
+        <v>0.3410558793868717</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.765087465476526</v>
+        <v>0.9035759735641165</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.077833724528375</v>
+        <v>7.082018760022152</v>
       </c>
       <c r="C19">
-        <v>0.7997546924987091</v>
+        <v>2.075832368912472</v>
       </c>
       <c r="D19">
-        <v>0.04862442177084603</v>
+        <v>0.01793838549835769</v>
       </c>
       <c r="E19">
-        <v>0.1258220028051191</v>
+        <v>0.1383329812448864</v>
       </c>
       <c r="F19">
-        <v>3.579050113020145</v>
+        <v>4.437848912976818</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2445088331995464</v>
+        <v>0.3380323202796376</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.766210775429542</v>
+        <v>0.9059020332887826</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.145564978607865</v>
+        <v>7.394423966720922</v>
       </c>
       <c r="C20">
-        <v>0.8200486238513349</v>
+        <v>2.169190530272374</v>
       </c>
       <c r="D20">
-        <v>0.04870811442526346</v>
+        <v>0.01853601614553213</v>
       </c>
       <c r="E20">
-        <v>0.1267323343815967</v>
+        <v>0.143695321846085</v>
       </c>
       <c r="F20">
-        <v>3.6073263101093</v>
+        <v>4.604968013015139</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.246955792035493</v>
+        <v>0.3517312134596864</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.761202399370774</v>
+        <v>0.8956907119999897</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.37534425674977</v>
+        <v>8.475473157240572</v>
       </c>
       <c r="C21">
-        <v>0.8888006356021947</v>
+        <v>2.492573781514807</v>
       </c>
       <c r="D21">
-        <v>0.04900236030996652</v>
+        <v>0.02056741519028549</v>
       </c>
       <c r="E21">
-        <v>0.1298726797555076</v>
+        <v>0.1623028245646765</v>
       </c>
       <c r="F21">
-        <v>3.705072359926191</v>
+        <v>5.192489834407269</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2553624449436853</v>
+        <v>0.3995583303497767</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.745195486902489</v>
+        <v>0.8662507081814539</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.527193906445632</v>
+        <v>9.209915955888846</v>
       </c>
       <c r="C22">
-        <v>0.9341658166571847</v>
+        <v>2.712597062882708</v>
       </c>
       <c r="D22">
-        <v>0.04920427762529656</v>
+        <v>0.02191635308819784</v>
       </c>
       <c r="E22">
-        <v>0.1319863850729206</v>
+        <v>0.1749830818948723</v>
       </c>
       <c r="F22">
-        <v>3.771023564472699</v>
+        <v>5.599324278919255</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2609963531017456</v>
+        <v>0.4324042416923959</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.735350837760734</v>
+        <v>0.8511621377302987</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.445993796063476</v>
+        <v>8.8150570984875</v>
       </c>
       <c r="C23">
-        <v>0.9099134716588537</v>
+        <v>2.594271120167548</v>
       </c>
       <c r="D23">
-        <v>0.04909563855170518</v>
+        <v>0.02119417416636438</v>
       </c>
       <c r="E23">
-        <v>0.1308526266097587</v>
+        <v>0.1681623066165656</v>
       </c>
       <c r="F23">
-        <v>3.735633279034431</v>
+        <v>5.379852960826526</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.257976543685345</v>
+        <v>0.4147110205337157</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.740548336851745</v>
+        <v>0.8587981360449106</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.141837250553465</v>
+        <v>7.377160378686654</v>
       </c>
       <c r="C24">
-        <v>0.8189320670904863</v>
+        <v>2.164030505971709</v>
       </c>
       <c r="D24">
-        <v>0.04870346903217282</v>
+        <v>0.01850311757180023</v>
       </c>
       <c r="E24">
-        <v>0.126682036688841</v>
+        <v>0.1433988070659851</v>
       </c>
       <c r="F24">
-        <v>3.605763264225175</v>
+        <v>4.595700691368421</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2468207241193312</v>
+        <v>0.3509727278128167</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.761474361749904</v>
+        <v>0.8962343566095541</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.820772391448429</v>
+        <v>5.91866671878978</v>
       </c>
       <c r="C25">
-        <v>0.7225891535513256</v>
+        <v>1.728489714190403</v>
       </c>
       <c r="D25">
-        <v>0.04832246564163256</v>
+        <v>0.01566889538982252</v>
       </c>
       <c r="E25">
-        <v>0.1224441832956131</v>
+        <v>0.1184375711600012</v>
       </c>
       <c r="F25">
-        <v>3.474397201050692</v>
+        <v>3.827007854459936</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2353764591542244</v>
+        <v>0.2875467600225932</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.786660944662032</v>
+        <v>0.9512703816156147</v>
       </c>
       <c r="O25">
         <v>0</v>
